--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Edn3-Ednrb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Edn3-Ednrb.xlsx
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3157193333333333</v>
+        <v>0.56251</v>
       </c>
       <c r="H2">
-        <v>0.9471579999999999</v>
+        <v>1.68753</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.20462366666667</v>
+        <v>20.92735966666666</v>
       </c>
       <c r="N2">
-        <v>66.613871</v>
+        <v>62.782079</v>
       </c>
       <c r="O2">
-        <v>0.2978227249605296</v>
+        <v>0.717329969634113</v>
       </c>
       <c r="P2">
-        <v>0.2978227249605296</v>
+        <v>0.717329969634113</v>
       </c>
       <c r="Q2">
-        <v>7.010428980957554</v>
+        <v>11.77184908609666</v>
       </c>
       <c r="R2">
-        <v>63.093860828618</v>
+        <v>105.94664177487</v>
       </c>
       <c r="S2">
-        <v>0.2978227249605296</v>
+        <v>0.717329969634113</v>
       </c>
       <c r="T2">
-        <v>0.2978227249605296</v>
+        <v>0.717329969634113</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3157193333333333</v>
+        <v>0.56251</v>
       </c>
       <c r="H3">
-        <v>0.9471579999999999</v>
+        <v>1.68753</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.849891</v>
       </c>
       <c r="O3">
-        <v>0.003799761967585241</v>
+        <v>0.009710610016949358</v>
       </c>
       <c r="P3">
-        <v>0.003799761967585242</v>
+        <v>0.009710610016949358</v>
       </c>
       <c r="Q3">
-        <v>0.08944233997533331</v>
+        <v>0.15935739547</v>
       </c>
       <c r="R3">
-        <v>0.8049810597779999</v>
+        <v>1.43421655923</v>
       </c>
       <c r="S3">
-        <v>0.003799761967585241</v>
+        <v>0.009710610016949358</v>
       </c>
       <c r="T3">
-        <v>0.003799761967585242</v>
+        <v>0.009710610016949358</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3157193333333333</v>
+        <v>0.56251</v>
       </c>
       <c r="H4">
-        <v>0.9471579999999999</v>
+        <v>1.68753</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.39074133333333</v>
+        <v>2.195310666666666</v>
       </c>
       <c r="N4">
-        <v>49.172224</v>
+        <v>6.585932</v>
       </c>
       <c r="O4">
-        <v>0.2198431876755752</v>
+        <v>0.07524896398496668</v>
       </c>
       <c r="P4">
-        <v>0.2198431876755751</v>
+        <v>0.07524896398496668</v>
       </c>
       <c r="Q4">
-        <v>5.174873926599111</v>
+        <v>1.234884203106666</v>
       </c>
       <c r="R4">
-        <v>46.573865339392</v>
+        <v>11.11395782796</v>
       </c>
       <c r="S4">
-        <v>0.2198431876755752</v>
+        <v>0.07524896398496668</v>
       </c>
       <c r="T4">
-        <v>0.2198431876755751</v>
+        <v>0.07524896398496668</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3157193333333333</v>
+        <v>0.56251</v>
       </c>
       <c r="H5">
-        <v>0.9471579999999999</v>
+        <v>1.68753</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.585055</v>
+        <v>3.329509666666667</v>
       </c>
       <c r="N5">
-        <v>70.75516500000001</v>
+        <v>9.988529</v>
       </c>
       <c r="O5">
-        <v>0.3163379597821585</v>
+        <v>0.1141260582380437</v>
       </c>
       <c r="P5">
-        <v>0.3163379597821585</v>
+        <v>0.1141260582380437</v>
       </c>
       <c r="Q5">
-        <v>7.44625784123</v>
+        <v>1.872882482596667</v>
       </c>
       <c r="R5">
-        <v>67.01632057107</v>
+        <v>16.85594234337</v>
       </c>
       <c r="S5">
-        <v>0.3163379597821585</v>
+        <v>0.1141260582380437</v>
       </c>
       <c r="T5">
-        <v>0.3163379597821585</v>
+        <v>0.1141260582380437</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3157193333333333</v>
+        <v>0.56251</v>
       </c>
       <c r="H6">
-        <v>0.9471579999999999</v>
+        <v>1.68753</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.09279533333333</v>
+        <v>2.438488333333333</v>
       </c>
       <c r="N6">
-        <v>36.278386</v>
+        <v>7.315465</v>
       </c>
       <c r="O6">
-        <v>0.1621963656141516</v>
+        <v>0.08358439812592726</v>
       </c>
       <c r="P6">
-        <v>0.1621963656141515</v>
+        <v>0.08358439812592725</v>
       </c>
       <c r="Q6">
-        <v>3.817929280776444</v>
+        <v>1.371674072383333</v>
       </c>
       <c r="R6">
-        <v>34.36136352698799</v>
+        <v>12.34506665145</v>
       </c>
       <c r="S6">
-        <v>0.1621963656141516</v>
+        <v>0.08358439812592726</v>
       </c>
       <c r="T6">
-        <v>0.1621963656141515</v>
+        <v>0.08358439812592725</v>
       </c>
     </row>
   </sheetData>
